--- a/public/res/leaderboards/Final/Advanced.xlsx
+++ b/public/res/leaderboards/Final/Advanced.xlsx
@@ -734,29 +734,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Richard Shao</t>
+          <t>Yalun Yang</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>46400</v>
+        <v>-30000</v>
       </c>
       <c r="D10" t="n">
-        <v>68100</v>
+        <v>92000</v>
       </c>
       <c r="E10" t="n">
-        <v>-60000</v>
+        <v>8000</v>
       </c>
       <c r="F10" t="n">
-        <v>-600</v>
+        <v>22000</v>
       </c>
       <c r="G10" t="n">
-        <v>45000</v>
+        <v>11000</v>
       </c>
       <c r="H10" t="n">
         <v>-30000</v>
       </c>
       <c r="I10" t="n">
-        <v>128900</v>
+        <v>133000</v>
       </c>
     </row>
     <row r="11">
@@ -765,29 +765,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chan Chung Yin</t>
+          <t>Richard Shao</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-30000</v>
+        <v>46400</v>
       </c>
       <c r="D11" t="n">
-        <v>-30000</v>
+        <v>68100</v>
       </c>
       <c r="E11" t="n">
-        <v>14700</v>
+        <v>-60000</v>
       </c>
       <c r="F11" t="n">
-        <v>-30000</v>
+        <v>-600</v>
       </c>
       <c r="G11" t="n">
-        <v>57000</v>
+        <v>45000</v>
       </c>
       <c r="H11" t="n">
-        <v>86800</v>
+        <v>-30000</v>
       </c>
       <c r="I11" t="n">
-        <v>128500</v>
+        <v>128900</v>
       </c>
     </row>
     <row r="12">
@@ -796,29 +796,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Alan Qiu</t>
+          <t>Chan Chung Yin</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>90800</v>
+        <v>-30000</v>
       </c>
       <c r="D12" t="n">
         <v>-30000</v>
       </c>
       <c r="E12" t="n">
-        <v>3300</v>
+        <v>14700</v>
       </c>
       <c r="F12" t="n">
-        <v>-10400</v>
+        <v>-30000</v>
       </c>
       <c r="G12" t="n">
-        <v>40300</v>
+        <v>57000</v>
       </c>
       <c r="H12" t="n">
-        <v>-30000</v>
+        <v>86800</v>
       </c>
       <c r="I12" t="n">
-        <v>124000</v>
+        <v>128500</v>
       </c>
     </row>
     <row r="13">
@@ -827,29 +827,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Alix Zhu</t>
+          <t>Alan Qiu</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-30000</v>
+        <v>90800</v>
       </c>
       <c r="D13" t="n">
         <v>-30000</v>
       </c>
       <c r="E13" t="n">
-        <v>94900</v>
+        <v>3300</v>
       </c>
       <c r="F13" t="n">
-        <v>25700</v>
+        <v>-10400</v>
       </c>
       <c r="G13" t="n">
-        <v>31600</v>
+        <v>40300</v>
       </c>
       <c r="H13" t="n">
         <v>-30000</v>
       </c>
       <c r="I13" t="n">
-        <v>122200</v>
+        <v>124000</v>
       </c>
     </row>
     <row r="14">
@@ -858,7 +858,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Haocheng Fan</t>
+          <t>Alix Zhu</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -868,19 +868,19 @@
         <v>-30000</v>
       </c>
       <c r="E14" t="n">
-        <v>89500</v>
+        <v>94900</v>
       </c>
       <c r="F14" t="n">
-        <v>51500</v>
+        <v>25700</v>
       </c>
       <c r="G14" t="n">
-        <v>25900</v>
+        <v>31600</v>
       </c>
       <c r="H14" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
       </c>
       <c r="I14" t="n">
-        <v>106900</v>
+        <v>122200</v>
       </c>
     </row>
     <row r="15">
@@ -889,29 +889,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Yalun Yang</t>
+          <t>Haocheng Fan</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>-30000</v>
       </c>
       <c r="D15" t="n">
-        <v>92000</v>
+        <v>-30000</v>
       </c>
       <c r="E15" t="n">
-        <v>8000</v>
+        <v>89500</v>
       </c>
       <c r="F15" t="n">
-        <v>22000</v>
+        <v>51500</v>
       </c>
       <c r="G15" t="n">
-        <v>-30000</v>
+        <v>25900</v>
       </c>
       <c r="H15" t="n">
-        <v>-30000</v>
+        <v>-60000</v>
       </c>
       <c r="I15" t="n">
-        <v>92000</v>
+        <v>106900</v>
       </c>
     </row>
     <row r="16">
